--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf5.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Plano Setorial de Mobilização Militar (PSMM) é de responsabilidade da Subchefia de Mobilização (SUBMOB) da Chefia de Logística e Mobilização (CHELOG).</t>
+          <t>A organização do Estado-Maior Conjunto (EMCj) é uma prerrogativa do Comandante Operacional, devendo basear-se na flexibilidade e nas demandas da operação.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O Plano Setorial de Mobilização Militar (PSMM) é de responsabilidade exclusiva dos Comandos das Forças Singulares, sem envolvimento do EMCFA.</t>
+          <t>A organização do EMCj é rígida e preestabelecida pelo Ministério da Defesa, não permitindo flexibilidade ou adaptação por parte do Comandante Operacional.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Conforme o **item 5.1.1**, o PSMM é de responsabilidade da Subchefia de Mobilização (SUBMOB) da Chefia de Logística e Mobilização (CHELOG) do EMCFA.</t>
+          <t>Conforme o **item 5.1.1**, a organização do EMCj é uma prerrogativa do Cmt Op, baseada na flexibilidade e características da missão.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Após a aprovação pelo Ministro da Defesa, o PSMM será enviado à Secretaria Executiva do SINAMOB para integrar o Plano Nacional de Mobilização (PNM).</t>
+          <t>Na estrutura do EMCj, a D-2 corresponde à Seção de Inteligência, enquanto a D-9 refere-se à Seção de Assuntos Civis.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O PSMM, após aprovado pelo Ministro da Defesa, encerra seu trâmite no âmbito militar, não havendo previsão de envio ao SINAMOB ou integração ao PNM.</t>
+          <t>Na estrutura padrão do EMCj, a D-2 refere-se à Seção de Logística e a D-9 à Seção de Comando e Controle.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>De acordo com o **item 5.1.5**, após aprovação pelo Min Def, o PSMM será enviado à Secretaria Executiva do SINAMOB a fim de integrar o Plano Nacional de Mobilização (PNM).</t>
+          <t>De acordo com o **item 5.1.2**, a D-2 é a 2ª Seção (Inteligência) e a D-9 é a 9ª Seção (Assuntos Civis).</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O título do PSMM será composto pelo nome "PLANO SETORIAL DE MOBILIZAÇÃO MILITAR" seguido de um código iniciado pela letra "S".</t>
+          <t>A proposta do Chefe do EMCj deve atentar para a predominância das operações no Teatro de Operações ou Área de Operações.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O título do PSMM será composto pelo nome "PLANO SETORIAL DE MOBILIZAÇÃO MILITAR" seguido de um código iniciado pela letra "M", referente a "Militar".</t>
+          <t>A escolha do Chefe do EMCj deve ser baseada exclusivamente na antiguidade absoluta, ignorando a predominância das operações no TO.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Segundo o **item 5.3.1**, o código do título é formado pela letra “S”, seguida dos caracteres a serem definidos entre a CHELOG e a CHOC.</t>
+          <t>Segundo o **item 5.1.3**, o Comandante Operacional deve atentar para a predominância das operações no TO/A Op ao propor o Chefe do EMCj.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No corpo do PSMM, a única referência que deve constar é "De acordo com o Art. 23 do Decreto nº 6.592, de 2 de outubro de 2008".</t>
+          <t>A presença de Oficiais de Ligação das Forças Componentes no EMCj visa proporcionar melhor coordenação no planejamento e execução das ações.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No corpo do PSMM, devem ser transcritas todas as portarias normativas que fundamentam o plano, como a Doutrina de Mobilização Militar.</t>
+          <t>A presença de Oficiais de Ligação no EMCj é desaconselhada, pois tende a gerar duplicidade de ordens e confusão administrativa.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Conforme o **item 5.3.3.2**, no corpo do PSMM apenas deve constar a referência ao Art. 23 do Decreto nº 6.592.</t>
+          <t>O texto do **item 5.1.4.3** afirma que o estabelecimento de Oficiais de Ligação proporciona melhor coordenação no planejamento e execução.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A Lista de Carências (LC) deverá conter o custo estimado total, que serve como fator de planejamento.</t>
+          <t>Como a condução da campanha ocorre ininterruptamente (24h), os recursos humanos de um Comando Operacional devem ser organizados em turnos.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Lista de Carências (LC) deve omitir custos financeiros, focando apenas na quantidade física de material para evitar vazamento de dados estratégicos.</t>
+          <t>Mesmo em campanha, os recursos humanos do Comando Operacional devem seguir o horário comercial administrativo para evitar fadiga.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nos termos do **item 5.3.4.3**, a LC deverá conter o custo estimado total, como fator de planejamento, que é o somatório dos custos estimados de todas as carências.</t>
+          <t>Conforme o **item 5.2.1**, a condução ocorre ininterruptamente, devendo os recursos humanos trabalhar em turnos.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A elaboração das Listas de Carências (LC) deve seguir as orientações do manual MD41-M-08 e o modelo do Anexo V.</t>
+          <t>O objetivo principal das reuniões formais é viabilizar a tomada de decisões que resultem em ações a serem executadas pelas Forças Componentes e que requeiram coordenação.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A elaboração das Listas de Carências (LC) é livre, não necessitando seguir modelos padronizados ou orientações de manuais específicos.</t>
+          <t>As reuniões formais têm caráter meramente protocolar e solene, não devendo ser utilizadas para tomada de decisões operacionais ou coordenação.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Segundo o **item 5.3.4.2**, deverão ser seguidas as orientações contidas no Anexo V, bem como as orientações contidas no manual MD41-M-08.</t>
+          <t>Segundo o **item 5.2.3**, o objetivo principal é viabilizar a tomada de decisões para ações que requeiram coordenação.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Na fase de Preparo, uma das ações é propor a colocação de encomendas educativas nas empresas da Base Industrial de Defesa (BID).</t>
+          <t>É atribuição do Chefe do EMCj coordenar as reuniões formais do Comando Operacional que têm por finalidade a aprovação da Ordem de Coordenação.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Na fase de Preparo, é vedada a colocação de encomendas educativas na BID, devendo as aquisições ocorrerem apenas por licitação internacional.</t>
+          <t>O Chefe do EMCj deve se abster de participar das reuniões de coordenação, delegando essa função ao Chefe da Seção de Pessoal.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Conforme o **item 5.3.5.1, alínea "b"**, deve-se propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas EED e nas ED.</t>
+          <t>Conforme o **item 5.3.1, alínea 'e'**, compete ao Chefe do EMCj coordenar as reuniões formais para aprovação da Ordem de Coordenação.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A partir da decretação da Mobilização Nacional, as ações planejadas serão empreendidas de modo acelerado e compulsório.</t>
+          <t>Compete às seções do EMCj zelar pela observância dos aspectos doutrinários conjuntos, propondo os ajustes adequados.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mesmo após a decretação da Mobilização Nacional, as ações planejadas mantêm seu ritmo ordinário e caráter voluntário para não impactar a economia.</t>
+          <t>As seções do EMCj devem priorizar a doutrina singular de cada força, evitando a aplicação de doutrina conjunta para não gerar conflitos.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>De acordo com o **item 5.3.6**, a partir da decretação, as ações serão empreendidas de modo acelerado e compulsório.</t>
+          <t>De acordo com o **item 5.3.2, alínea 'd'**, compete às seções zelar pela observância dos aspectos doutrinários conjuntos.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>As ações de Desmobilização visam à retomada da situação de normalidade do País quando cessarem os motivos da Mobilização.</t>
+          <t>O Chefe da Seção de Pessoal (D-1) deve estabelecer normas para o trato de prisioneiros de guerra (PG), refugiados e deslocados, em coordenação com Inteligência e Assuntos Civis.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>As ações de Desmobilização têm por objetivo manter indefinidamente a estrutura de guerra, mesmo após cessarem os motivos do conflito.</t>
+          <t>A gestão de prisioneiros de guerra e refugiados é responsabilidade exclusiva da Polícia Militar local, não cabendo ao D-1 do Comando Operacional interferir.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Segundo o **item 5.3.8**, ações de Desmobilização serão previstas para a retomada da situação de normalidade do País quando cessarem os motivos que determinaram a Mobilização.</t>
+          <t>Segundo o **item 5.3.3, alínea 'b'**, o D-1 estabelece normas para PG, refugiados e deslocados em coordenação com D-2 e D-9.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A execução da Desmobilização Militar será iniciada de forma ordenada e gradativa, para fazer face a um possível recrudescimento das ações do oponente.</t>
+          <t>Cabe à Seção de Inteligência (D-2) coordenar as atividades de meteorologia e oceanografia (METOC) entre os elementos dos demais Estados-Maiores.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A execução da Desmobilização Militar deve ser imediata e total assim que decretada, desconsiderando riscos de recrudescimento do oponente.</t>
+          <t>As atividades de meteorologia e oceanografia (METOC) são de responsabilidade da Seção de Logística (D-4), devido ao impacto no transporte de suprimentos.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Conforme o **item 5.3.9**, a execução da Desmobilização Militar será iniciada de forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+          <t>Conforme o **item 5.3.4, alínea 's'**, o Chefe da D-2 coordena as atividades de METOC.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A evolução das carências no PSMM deve ser acompanhada pela SUBMOB, reeditando-se as alteradas com o acréscimo de uma letra (ex: A) ao seu número.</t>
+          <t>O Chefe da Seção de Pessoal (D-1) planeja e coordena a evacuação, o sepultamento e a emissão de certidões de óbito.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Uma vez incluídas no PSMM, as carências tornam-se imutáveis e não podem ser reeditadas ou alteradas pela SUBMOB.</t>
+          <t>A emissão de certidões de óbito e o sepultamento são tarefas administrativas da Seção de Finanças (D-10), visando o encerramento da folha de pagamento.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nos termos do **item 5.3.10.2**, a evolução deve ser acompanhada, devendo-se reeditar as carências alteradas, acrescendo-se ao seu número a letra A (ou subsequente).</t>
+          <t>O texto do **item 5.3.3, alínea 'o'** (contido na pág. 54) atribui ao D-1 planejar a evacuação, sepultamento e certidões de óbito.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,36 +852,546 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O PSMM será assinado pelo Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA) e aprovado pelo Ministro de Estado da Defesa.</t>
+          <t>Manter atualizadas as ordens de batalha do inimigo e o mapa de situação é uma atribuição do Chefe da Seção de Inteligência (D-2).</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>O PSMM será assinado e aprovado exclusivamente pelos Comandantes das Forças Singulares, sem necessidade de assinatura do CEMCFA ou Ministro da Defesa.</t>
+          <t>A atualização das ordens de batalha do inimigo compete à Seção de Comunicação Social (D-7), para divulgação na mídia.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>De acordo com o **item 5.3.13**, o PSMM será assinado pelo CEMCFA e será aprovado pelo Ministro de Estado da Defesa.</t>
+          <t>De acordo com o **item 5.3.4, alínea 'g'**, o D-2 mantém atualizadas as ordens de batalha do inimigo e o mapa de situação.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A Seção de Operações (D-3) deve ativar a Subseção de Guerra Cibernética (SGC) em sua estrutura para coordenar o emprego dessa capacidade.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A Guerra Cibernética é tratada exclusivamente pela Seção de Informática Administrativa, sem vínculo com a Seção de Operações (D-3).</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.3.5, alínea 'o'**, o Chefe da D-3 ativa a Subseção de Guerra Cibernética em sua estrutura.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Operações (D-3) é responsável pela consolidação e formalização do documento Exame de Situação Operacional.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>O Exame de Situação Operacional é consolidado pela Seção de Administração Financeira (D-10), visando a análise de custos antes da tática.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Segundo o **item 5.3.5, alínea 'c'**, o D-3 conduz o PPC e é responsável pela consolidação do Exame de Situação Operacional.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Estabelecer os níveis mínimos de estoque nas diversas classes de suprimento é atribuição do Chefe da Seção de Logística (D-4).</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Os níveis de estoque são definidos livremente pelos fornecedores civis, não cabendo à Seção de Logística (D-4) estabelecer mínimos.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 5.3.6, alínea 'b'**, o D-4 estabelece os níveis mínimos de estoque nas diversas classes de suprimento.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Planejamento (D-5) realiza o Gerenciamento do Risco Operacional (GRO).</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>O Gerenciamento do Risco Operacional (GRO) é realizado pela Seção de Pessoal (D-1), focando apenas em riscos de acidentes de trabalho.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.3.7, alínea 'l'**, realizar o Gerenciamento do Risco Operacional (GRO) é atribuição do D-5.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Compete ao Chefe da Seção de Logística (D-4) consolidar as Listas de Necessidades das demais seções na Lista de Necessidades Complementar (LNC).</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cada seção envia sua lista de necessidades diretamente ao Ministério da Defesa, sem consolidação por parte da Seção de Logística.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Segundo o **item 5.3.6, alínea 'r'**, o D-4 consolida as listas das demais seções na Lista de Necessidades Complementar (LNC).</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Caso o escalão superior não tenha definido claramente, o D-5 deve propor ao Comandante o Estado Final Desejado Operacional (EFDOp).</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>O EFDOp nunca pode ser proposto pelo D-5; se não vier definido superiormente, a operação deve prosseguir sem um estado final claro.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>O texto do **item 5.3.7, alínea 'b'** atribui ao D-5 propor o EFDOp caso este não tenha sido claramente definido pelo escalão superior.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>O planejamento das atividades de Guerra Eletrônica é atribuição da Seção de Comando e Controle (D-6), em coordenação com as demais seções.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A Guerra Eletrônica é planejada exclusivamente pela Seção de Assuntos Civis (D-9), devido ao impacto nas telecomunicações urbanas.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.3.8, alínea 'h'**, o Chefe da D-6 planeja as atividades de Guerra Eletrônica.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A Seção de Comunicação Social (D-7) orienta e controla a atuação da mídia nos aspectos que possam interferir nas operações.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A mídia tem acesso irrestrito e incontrolável ao Teatro de Operações, sendo vedada qualquer orientação ou controle por parte da D-7.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 5.3.9, alínea 'g'**, a D-7 orienta, coordena e controla a atuação da mídia nos aspectos que interfiram nas operações.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>O Chefe da Seção de Operação de Informação (D-8) apresenta a análise do ambiente informacional, considerando capacidades como Ops Psicológicas e Defesa Cibernética.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A análise do ambiente informacional é irrelevante para o planejamento moderno, não havendo seção responsável por integrar Ops Psicológicas e Cibernética.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Segundo o **item 5.3.10, alínea 'a'**, o D-8 apresenta a análise do ambiente informacional e suas capacidades relacionadas.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A Seção de Assuntos Civis (D-9) verifica os serviços públicos e infraestruturas críticas a serem preservados no TO/A Op.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A preservação de infraestruturas críticas é responsabilidade exclusiva das empresas concessionárias, sem envolvimento da Seção de Assuntos Civis.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.3.11, alínea 'e'**, o D-9 verifica serviços públicos e infraestruturas críticas a serem preservados.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A Seção de Administração Financeira (D-10) realiza a programação orçamentária e financeira no âmbito do Comando Operacional.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A programação financeira é feita descentralizadamente por cada unidade combatente, sem centralização no nível do Comando Operacional.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>O texto do **item 5.3.12, alínea 'c'** atribui ao D-10 realizar a programação orçamentária e financeira no âmbito do C Op.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>O Chefe da D-8 deve considerar as atividades que afetam o ambiente da informação dentro da abordagem das comunicações estratégicas.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>As comunicações estratégicas são de nível político exclusivo, não devendo ser consideradas pelo D-8 no nível operacional.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 5.3.10, alínea 'c'**, o D-8 considera atividades dentro da abordagem das comunicações estratégicas.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A inexistência de comandos operacionais conjuntos permanentemente ativados em tempo de paz dificulta o gerenciamento inicial do ciclo operacional em crises.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>O Brasil possui diversos comandos operacionais conjuntos permanentemente ativados em tempo de paz, prontos para qualquer crise imediata.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.4.1**, a inexistência de comandos conjuntos permanentes impede o gerenciamento inicial imediato do ciclo operacional.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>O EMCFA auxilia a estruturação do EMCj de um Comando Operacional, mantendo condições mínimas nas áreas operacional, de inteligência e logística.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>O EMCFA é proibido de auxiliar na estruturação de Comandos Operacionais, devendo cada força singular agir independentemente.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Segundo o **item 5.4.2**, é responsabilidade do EMCFA manter condições mínimas e auxiliar a estruturação do EMCj.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>O Comandante Operacional pode valer-se da estrutura sugerida nos Anexos A a J para facilitar a composição inicial do seu EMCj.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Os Anexos A a J contêm estruturas obrigatórias e imutáveis que o Comandante Operacional deve seguir rigorosamente, sem adaptações.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>O texto do **item 5.4.4** afirma que o Comandante "poderá valer-se" da estrutura sugerida para facilitar a composição, mantendo a prerrogativa de ajuste.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
